--- a/data/skill.xlsx
+++ b/data/skill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>skillid</t>
   </si>
@@ -25,7 +25,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>atkmode</t>
+    <t>mode</t>
   </si>
   <si>
     <t>selfeffect</t>
@@ -46,6 +46,9 @@
     <t>bounce</t>
   </si>
   <si>
+    <t>pierce</t>
+  </si>
+  <si>
     <t>cooldown</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>atktype</t>
   </si>
   <si>
-    <t>levelinfo</t>
+    <t>leveldata</t>
   </si>
   <si>
     <t>desc</t>
@@ -91,7 +94,10 @@
     <t>攻击类型
 1 物理攻击
 2 魔法
-3 道术</t>
+3 道术
+4 魔法buff
+5 道术buff
+6 debuff</t>
   </si>
   <si>
     <t>自身特效</t>
@@ -110,6 +116,9 @@
   </si>
   <si>
     <t>弹射次数</t>
+  </si>
+  <si>
+    <t>穿透次数</t>
   </si>
   <si>
     <t>冷却时间（秒）</t>
@@ -138,11 +147,6 @@
   </si>
   <si>
     <t>简介</t>
-  </si>
-  <si>
-    <t>技能类型 
-1加法攻击
-2乘法攻击</t>
   </si>
   <si>
     <t>数值影响
@@ -154,7 +158,15 @@
 6 神兽伤害</t>
   </si>
   <si>
+    <t>技能类型 
+1加法攻击
+2乘法攻击</t>
+  </si>
+  <si>
     <t>skill100</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
   </si>
   <si>
     <t>刺杀剑法</t>
@@ -279,11 +291,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -308,6 +320,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -316,30 +335,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -355,16 +368,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,45 +398,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,9 +421,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,31 +477,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,151 +561,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,6 +719,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -734,21 +770,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -762,159 +783,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1262,10 +1274,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:S3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1273,17 +1285,17 @@
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.7857142857143" style="1" customWidth="1"/>
-    <col min="8" max="12" width="15.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1339285714286" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="17" max="17" width="29.2857142857143" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.3839285714286" style="1" customWidth="1"/>
+    <col min="8" max="13" width="15.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.1339285714286" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="18" max="18" width="29.2857142857143" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.6607142857143" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3839285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1341,338 +1353,346 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>19</v>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" ht="124" spans="1:19">
+    <row r="3" ht="124" spans="1:20">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="L3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="P3" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="Q3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="R3" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="S3" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="6">
         <v>10001</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
         <v>3</v>
       </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6">
         <v>2</v>
       </c>
-      <c r="S4" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="6">
+    <row r="6" spans="1:20">
+      <c r="A6" s="6">
         <v>10002</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="K5" s="1">
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M6" s="1">
         <v>3</v>
       </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="6">
-        <v>2</v>
-      </c>
-      <c r="S5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="6">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
       <c r="N6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <v>3</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="6">
+        <v>10003</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="6">
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="6">
         <v>2</v>
       </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="6">
+    <row r="8" spans="1:20">
+      <c r="A8" s="6">
         <v>10004</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="K7" s="1">
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
         <v>10</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M8" s="1">
         <v>10</v>
       </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
         <v>3</v>
       </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="6">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>10</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>58</v>
+      <c r="P8" s="1">
+        <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="6">
-        <v>1</v>
+      <c r="R8" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="S8" s="6">
         <v>1</v>
       </c>
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="6">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>59</v>
@@ -1683,40 +1703,39 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="K9" s="1">
-        <v>3</v>
-      </c>
       <c r="L9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>10</v>
       </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="6">
-        <v>1</v>
-      </c>
       <c r="S9" s="6">
         <v>1</v>
       </c>
+      <c r="T9" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="6">
+        <v>10006</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1725,38 +1744,49 @@
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="K10" s="1">
-        <v>100</v>
+      <c r="E10" s="1">
+        <v>200011</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>110</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="M10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="1">
-        <v>2</v>
-      </c>
-      <c r="S10" s="1">
-        <v>3</v>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>65</v>
@@ -1765,40 +1795,39 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1">
-        <v>10</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>10</v>
-      </c>
       <c r="O11" s="1">
-        <v>4</v>
-      </c>
-      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
         <v>2</v>
       </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>68</v>
@@ -1807,40 +1836,39 @@
         <v>69</v>
       </c>
       <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="K12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N12" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
         <v>2</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R12" s="1">
-        <v>2</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>71</v>
@@ -1851,38 +1879,52 @@
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="K13" s="1">
-        <v>1</v>
+      <c r="E13" s="1">
+        <v>5100</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5112</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5111</v>
+      </c>
+      <c r="I13" s="1">
+        <v>500</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>15</v>
+      </c>
+      <c r="P13" s="1">
         <v>2</v>
       </c>
-      <c r="N13" s="1">
-        <v>15</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
       <c r="S13" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
@@ -1891,40 +1933,39 @@
         <v>75</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="K14" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>50</v>
       </c>
-      <c r="M14" s="1">
-        <v>3</v>
-      </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="R14" s="1">
-        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>4</v>
       </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>77</v>
@@ -1933,31 +1974,71 @@
         <v>78</v>
       </c>
       <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <v>50</v>
+      </c>
+      <c r="N15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="K15" s="1">
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
         <v>100</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M16" s="1">
         <v>100</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N16" s="1">
         <v>2</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O16" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="1">
         <v>1</v>
       </c>
     </row>

--- a/data/skill.xlsx
+++ b/data/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11200"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>skillid</t>
   </si>
@@ -291,11 +291,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -307,7 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,16 +335,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -359,9 +365,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,73 +449,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -477,187 +477,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,8 +689,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,7 +699,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,8 +737,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,179 +783,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,54 +958,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1272,27 +1272,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="1"/>
+    <col min="1" max="2" width="9.14166666666667" style="1"/>
     <col min="3" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7833333333333" style="1" customWidth="1"/>
     <col min="8" max="13" width="15.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.875" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.1339285714286" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="18" max="18" width="29.2857142857143" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.6607142857143" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3839285714286" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.1333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1416666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="29.2833333333333" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6583333333333" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1419,7 +1419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="124" spans="1:20">
+    <row r="3" ht="99.75" spans="1:20">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1494,12 +1494,6 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
       <c r="L4" s="1">
         <v>1</v>
       </c>
@@ -1515,7 +1509,6 @@
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
         <v>43</v>
       </c>
